--- a/output/table/table_source_top20.xlsx
+++ b/output/table/table_source_top20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaitseng\kaitsengcdc\003 my coding\cdc_eic_daily_news\output\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E7CD1-7593-4629-87CC-5FC407632077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3C7BB-56B4-44FF-997D-EA26A4D33E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16177,7 +16177,7 @@
   <dimension ref="A1:K5239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
